--- a/CA/JIRA/PowerBI Input/ONE Product Defect Numbers by Release and Component cf v1-0 10320.xlsx
+++ b/CA/JIRA/PowerBI Input/ONE Product Defect Numbers by Release and Component cf v1-0 10320.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="7.3" sheetId="11" r:id="rId1"/>
@@ -619,9 +619,6 @@
     <t>Watchlist Manager</t>
   </si>
   <si>
-    <t>Workflow Configuator</t>
-  </si>
-  <si>
     <t>Total Defects</t>
   </si>
   <si>
@@ -647,6 +644,9 @@
   </si>
   <si>
     <t>Base Platform</t>
+  </si>
+  <si>
+    <t>Workflow Configurator</t>
   </si>
 </sst>
 </file>
@@ -1201,11 +1201,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1240,7 +1239,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1769,359 +1767,359 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="57" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.21875" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="1" width="20.109375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="74">
+      <c r="A1" s="72">
         <v>7.3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>13</v>
+      <c r="G2" s="30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="61">
         <v>14</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="62">
         <f>B3/$B$12</f>
         <v>7.2164948453608241E-2</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="69">
         <v>5</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <f>D3/$D$12</f>
         <v>0.625</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="61">
         <v>2</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="67">
         <f>F3/$F$12</f>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="59">
         <v>150</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="63">
         <f>B4/$B$12</f>
         <v>0.77319587628865982</v>
       </c>
-      <c r="D4" s="72">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="D4" s="70">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
         <f t="shared" ref="E4:E11" si="0">D4/$D$12</f>
         <v>0</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>10</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="68">
         <f>F4/$F$12</f>
         <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="59">
         <v>2</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="63">
         <f t="shared" ref="C5:C10" si="1">B5/$B$12</f>
         <v>1.0309278350515464E-2</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="70">
         <v>3</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>5</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="68">
         <f t="shared" ref="G5:G10" si="2">F5/$F$12</f>
         <v>0.17857142857142858</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="59">
         <v>2</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="63">
         <f t="shared" si="1"/>
         <v>1.0309278350515464E-2</v>
       </c>
-      <c r="D6" s="72">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="22">
+      <c r="D6" s="70">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="68">
         <f t="shared" si="2"/>
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="61">
-        <v>0</v>
-      </c>
-      <c r="C7" s="65">
+      <c r="B7" s="59">
+        <v>0</v>
+      </c>
+      <c r="C7" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="72">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7" s="70">
+      <c r="D7" s="70">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="59">
         <v>6</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="63">
         <f t="shared" si="1"/>
         <v>3.0927835051546393E-2</v>
       </c>
-      <c r="D8" s="72">
-        <v>0</v>
-      </c>
-      <c r="E8" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="22">
+      <c r="D8" s="70">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
         <v>3</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="68">
         <f t="shared" si="2"/>
         <v>0.10714285714285714</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="61">
+      <c r="A9" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="59">
         <v>3</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="63">
         <f t="shared" si="1"/>
         <v>1.5463917525773196E-2</v>
       </c>
-      <c r="D9" s="72">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0</v>
-      </c>
-      <c r="G9" s="70">
+      <c r="D9" s="70">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="59">
         <v>11</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="63">
         <f t="shared" si="1"/>
         <v>5.6701030927835051E-2</v>
       </c>
-      <c r="D10" s="72">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="22">
+      <c r="D10" s="70">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
         <v>7</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="68">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="60">
+      <c r="A11" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="58">
         <v>6</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="64">
         <f>B11/$B$12</f>
         <v>3.0927835051546393E-2</v>
       </c>
-      <c r="D11" s="73">
-        <v>0</v>
-      </c>
-      <c r="E11" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="60">
-        <v>0</v>
-      </c>
-      <c r="G11" s="67">
+      <c r="D11" s="71">
+        <v>0</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="58">
+        <v>0</v>
+      </c>
+      <c r="G11" s="65">
         <f>F11/$F$12</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="79">
+      <c r="A12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="77">
         <f>SUM(B3:B11)</f>
         <v>194</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80">
+      <c r="C12" s="77"/>
+      <c r="D12" s="78">
         <f t="shared" ref="D12" si="3">SUM(D3:D11)</f>
         <v>8</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="80">
+      <c r="E12" s="79"/>
+      <c r="F12" s="78">
         <f t="shared" ref="F12" si="4">SUM(F3:F11)</f>
         <v>28</v>
       </c>
-      <c r="G12" s="81"/>
+      <c r="G12" s="79"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="82">
+      <c r="A13" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="80">
         <f>B12/($B$12+$D$12+$F$12)</f>
         <v>0.84347826086956523</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="82">
+      <c r="C13" s="81"/>
+      <c r="D13" s="80">
         <f t="shared" ref="D13" si="5">D12/($B$12+$D$12+$F$12)</f>
         <v>3.4782608695652174E-2</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="82">
+      <c r="E13" s="81"/>
+      <c r="F13" s="80">
         <f t="shared" ref="F13" si="6">F12/($B$12+$D$12+$F$12)</f>
         <v>0.12173913043478261</v>
       </c>
-      <c r="G13" s="83"/>
+      <c r="G13" s="81"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="73">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="74"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="75">
-        <v>0.8</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="75">
-        <v>0.15</v>
-      </c>
-      <c r="G14" s="76"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="77">
+      <c r="B15" s="75">
         <f>B13-B14</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="77">
+      <c r="C15" s="76"/>
+      <c r="D15" s="75">
         <f t="shared" ref="D15" si="7">D14-D13</f>
         <v>1.5217391304347828E-2</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="77">
+      <c r="E15" s="76"/>
+      <c r="F15" s="75">
         <f t="shared" ref="F15" si="8">F14-F13</f>
         <v>2.8260869565217381E-2</v>
       </c>
-      <c r="G15" s="78"/>
+      <c r="G15" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2172,7 +2170,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2187,7 +2185,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21">
+      <c r="A1" s="20">
         <v>7.4</v>
       </c>
       <c r="B1" s="1"/>
@@ -2198,49 +2196,49 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>13</v>
+      <c r="G2" s="30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>2.247191011235955E-2</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <f>D3/$D$12</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>7</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <f>F3/$F$12</f>
         <v>0.3888888888888889</v>
       </c>
@@ -2249,23 +2247,23 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>34</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>0.38202247191011235</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>1</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <f t="shared" ref="E4:E11" si="0">D4/$D$12</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>3</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f>F4/$F$12</f>
         <v>0.16666666666666666</v>
       </c>
@@ -2274,23 +2272,23 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>5.6179775280898875E-2</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>2</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>3</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="44">
         <f t="shared" ref="G5:G10" si="1">F5/$F$12</f>
         <v>0.16666666666666666</v>
       </c>
@@ -2299,23 +2297,23 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>2.247191011235955E-2</v>
       </c>
-      <c r="D6" s="19">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="22">
-        <v>0</v>
-      </c>
-      <c r="G6" s="46">
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2324,23 +2322,23 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7" s="46">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2349,48 +2347,48 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>3.3707865168539325E-2</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>2</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>2</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="44">
         <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0</v>
-      </c>
-      <c r="G9" s="46">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2399,122 +2397,122 @@
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>41</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>0.4606741573033708</v>
       </c>
-      <c r="D10" s="19">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="22">
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
         <v>2</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="44">
         <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>2.247191011235955E-2</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>1</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <f>F11/$F$12</f>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="84">
+        <v>89</v>
+      </c>
+      <c r="C12" s="85"/>
+      <c r="D12" s="84">
+        <v>7</v>
+      </c>
+      <c r="E12" s="85"/>
+      <c r="F12" s="84">
+        <v>18</v>
+      </c>
+      <c r="G12" s="79"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="86">
-        <v>89</v>
-      </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="86">
-        <v>7</v>
-      </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="86">
-        <v>18</v>
-      </c>
-      <c r="G12" s="81"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="B13" s="80">
+        <v>0.7807017543859649</v>
+      </c>
+      <c r="C13" s="81"/>
+      <c r="D13" s="80">
+        <v>6.1403508771929821E-2</v>
+      </c>
+      <c r="E13" s="81"/>
+      <c r="F13" s="80">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="G13" s="81"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="82">
-        <v>0.7807017543859649</v>
-      </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="82">
-        <v>6.1403508771929821E-2</v>
-      </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="82">
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="G13" s="83"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="B14" s="73">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="74"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="75">
-        <v>0.8</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="75">
-        <v>0.15</v>
-      </c>
-      <c r="G14" s="76"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="84">
+      <c r="B15" s="82">
         <f>B13-B14</f>
         <v>-1.9298245614035148E-2</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="84">
+      <c r="C15" s="83"/>
+      <c r="D15" s="82">
         <f t="shared" ref="D15" si="2">D13-D14</f>
         <v>1.1403508771929818E-2</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="84">
+      <c r="E15" s="83"/>
+      <c r="F15" s="82">
         <f t="shared" ref="F15" si="3">F13-F14</f>
         <v>7.8947368421052599E-3</v>
       </c>
-      <c r="G15" s="85"/>
+      <c r="G15" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2542,350 +2540,350 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.21875" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="34"/>
+    <col min="1" max="1" width="20.109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.21875" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="47">
+      <c r="A1" s="45">
         <v>7.5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>13</v>
+      <c r="G2" s="30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="51">
         <v>8</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="46">
         <f>B3/$B$12</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="D3" s="54">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="D3" s="52">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
         <f>D3/$D$12</f>
         <v>0</v>
       </c>
-      <c r="F3" s="40">
-        <v>0</v>
-      </c>
-      <c r="G3" s="45">
+      <c r="F3" s="38">
+        <v>0</v>
+      </c>
+      <c r="G3" s="43">
         <f>F3/$F$12</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="50">
         <v>29</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="47">
         <f>B4/$B$12</f>
         <v>0.32954545454545453</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="53">
         <v>6</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <f t="shared" ref="E4:E11" si="0">D4/$D$12</f>
         <v>1</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>5</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="44">
         <f>F4/$F$12</f>
         <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="50">
         <v>9</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="63">
         <f t="shared" ref="C5:C10" si="1">B5/$B$12</f>
         <v>0.10227272727272728</v>
       </c>
-      <c r="D5" s="55">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="22">
+      <c r="D5" s="53">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
         <v>3</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="44">
         <f t="shared" ref="G5:G10" si="2">F5/$F$12</f>
         <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="50">
         <v>3</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="63">
         <f t="shared" si="1"/>
         <v>3.4090909090909088E-2</v>
       </c>
-      <c r="D6" s="55">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="22">
+      <c r="D6" s="53">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
         <v>2</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="44">
         <f t="shared" si="2"/>
         <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="52">
-        <v>0</v>
-      </c>
-      <c r="C7" s="65">
+      <c r="B7" s="50">
+        <v>0</v>
+      </c>
+      <c r="C7" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="55">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7" s="46">
+      <c r="D7" s="53">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="50">
         <v>2</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="63">
         <f t="shared" si="1"/>
         <v>2.2727272727272728E-2</v>
       </c>
-      <c r="D8" s="55">
-        <v>0</v>
-      </c>
-      <c r="E8" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="22">
+      <c r="D8" s="53">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
         <v>1</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="44">
         <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="52">
+      <c r="A9" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="50">
         <v>8</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="63">
         <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="D9" s="55">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0</v>
-      </c>
-      <c r="G9" s="46">
+      <c r="D9" s="53">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="50">
         <v>27</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="63">
         <f t="shared" si="1"/>
         <v>0.30681818181818182</v>
       </c>
-      <c r="D10" s="55">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="22">
+      <c r="D10" s="53">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
         <v>2</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="44">
         <f t="shared" si="2"/>
         <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="51">
+      <c r="A11" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="49">
         <v>2</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="48">
         <f>B11/$B$12</f>
         <v>2.2727272727272728E-2</v>
       </c>
-      <c r="D11" s="56">
-        <v>0</v>
-      </c>
-      <c r="E11" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0</v>
-      </c>
-      <c r="G11" s="41">
+      <c r="D11" s="54">
+        <v>0</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="36">
+        <v>0</v>
+      </c>
+      <c r="G11" s="39">
         <f>F11/$F$12</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="84">
+        <v>88</v>
+      </c>
+      <c r="C12" s="85"/>
+      <c r="D12" s="84">
+        <v>6</v>
+      </c>
+      <c r="E12" s="85"/>
+      <c r="F12" s="84">
+        <v>13</v>
+      </c>
+      <c r="G12" s="79"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="86">
-        <v>88</v>
-      </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="86">
-        <v>6</v>
-      </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="86">
-        <v>13</v>
-      </c>
-      <c r="G12" s="81"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
+      <c r="B13" s="80">
+        <v>0.82</v>
+      </c>
+      <c r="C13" s="81"/>
+      <c r="D13" s="80">
+        <v>6.1403508771929821E-2</v>
+      </c>
+      <c r="E13" s="81"/>
+      <c r="F13" s="80">
+        <v>0.12</v>
+      </c>
+      <c r="G13" s="81"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="82">
-        <v>0.82</v>
-      </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="82">
-        <v>6.1403508771929821E-2</v>
-      </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="82">
-        <v>0.12</v>
-      </c>
-      <c r="G13" s="83"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="43" t="s">
+      <c r="B14" s="73">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="74"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="75">
-        <v>0.8</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="75">
-        <v>0.15</v>
-      </c>
-      <c r="G14" s="76"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="84">
+      <c r="B15" s="82">
         <v>0.02</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="84">
+      <c r="C15" s="83"/>
+      <c r="D15" s="82">
         <v>-1.1403508771929818E-2</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="84">
+      <c r="E15" s="83"/>
+      <c r="F15" s="82">
         <v>0.03</v>
       </c>
-      <c r="G15" s="85"/>
+      <c r="G15" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2913,359 +2911,359 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="57" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.21875" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="1" width="20.109375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="74">
+      <c r="A1" s="72">
         <v>7.6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>13</v>
+      <c r="G2" s="30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63">
-        <v>0</v>
-      </c>
-      <c r="C3" s="64">
+      <c r="B3" s="61">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62">
         <f>B3/$B$12</f>
         <v>0</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="69">
         <v>1</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <f>D3/$D$12</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="61">
         <v>3</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="67">
         <f>F3/$F$12</f>
         <v>7.8947368421052627E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="59">
         <v>57</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="63">
         <f>B4/$B$12</f>
         <v>0.40714285714285714</v>
       </c>
-      <c r="D4" s="72">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="D4" s="70">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
         <f t="shared" ref="E4:E11" si="0">D4/$D$12</f>
         <v>0</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>3</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="68">
         <f>F4/$F$12</f>
         <v>7.8947368421052627E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="61">
-        <v>0</v>
-      </c>
-      <c r="C5" s="65">
+      <c r="B5" s="59">
+        <v>0</v>
+      </c>
+      <c r="C5" s="63">
         <f t="shared" ref="C5:C10" si="1">B5/$B$12</f>
         <v>0</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="70">
         <v>1</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>9</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="68">
         <f t="shared" ref="G5:G10" si="2">F5/$F$12</f>
         <v>0.23684210526315788</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="61">
-        <v>0</v>
-      </c>
-      <c r="C6" s="65">
+      <c r="B6" s="59">
+        <v>0</v>
+      </c>
+      <c r="C6" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="72">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="22">
-        <v>0</v>
-      </c>
-      <c r="G6" s="70">
+      <c r="D6" s="70">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="61">
-        <v>0</v>
-      </c>
-      <c r="C7" s="65">
+      <c r="B7" s="59">
+        <v>0</v>
+      </c>
+      <c r="C7" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="72">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7" s="70">
+      <c r="D7" s="70">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="59">
         <v>30</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="63">
         <f t="shared" si="1"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="70">
         <v>1</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>6</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="68">
         <f t="shared" si="2"/>
         <v>0.15789473684210525</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="61">
-        <v>0</v>
-      </c>
-      <c r="C9" s="65">
+      <c r="A9" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="59">
+        <v>0</v>
+      </c>
+      <c r="C9" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="72">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="22">
+      <c r="D9" s="70">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="68">
         <f t="shared" si="2"/>
         <v>7.8947368421052627E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="59">
         <v>53</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="63">
         <f t="shared" si="1"/>
         <v>0.37857142857142856</v>
       </c>
-      <c r="D10" s="72">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="22">
+      <c r="D10" s="70">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
         <v>13</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="68">
         <f t="shared" si="2"/>
         <v>0.34210526315789475</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="60">
-        <v>0</v>
-      </c>
-      <c r="C11" s="66">
+      <c r="A11" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="58">
+        <v>0</v>
+      </c>
+      <c r="C11" s="64">
         <f>B11/$B$12</f>
         <v>0</v>
       </c>
-      <c r="D11" s="73">
-        <v>0</v>
-      </c>
-      <c r="E11" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="60">
+      <c r="D11" s="71">
+        <v>0</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="58">
         <v>1</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="65">
         <f>F11/$F$12</f>
         <v>2.6315789473684209E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="79">
+      <c r="A12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="77">
         <f>SUM(B3:B11)</f>
         <v>140</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80">
+      <c r="C12" s="77"/>
+      <c r="D12" s="78">
         <f t="shared" ref="D12" si="3">SUM(D3:D11)</f>
         <v>3</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="80">
+      <c r="E12" s="79"/>
+      <c r="F12" s="78">
         <f t="shared" ref="F12" si="4">SUM(F3:F11)</f>
         <v>38</v>
       </c>
-      <c r="G12" s="81"/>
+      <c r="G12" s="79"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="82">
+      <c r="A13" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="80">
         <f>B12/($B$12+$D$12+$F$12)</f>
         <v>0.77348066298342544</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="82">
+      <c r="C13" s="81"/>
+      <c r="D13" s="80">
         <f t="shared" ref="D13" si="5">D12/($B$12+$D$12+$F$12)</f>
         <v>1.6574585635359115E-2</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="82">
+      <c r="E13" s="81"/>
+      <c r="F13" s="80">
         <f t="shared" ref="F13" si="6">F12/($B$12+$D$12+$F$12)</f>
         <v>0.20994475138121546</v>
       </c>
-      <c r="G13" s="83"/>
+      <c r="G13" s="81"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="73">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="74"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="75">
-        <v>0.8</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="75">
-        <v>0.15</v>
-      </c>
-      <c r="G14" s="76"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="77">
+      <c r="B15" s="75">
         <f>B13-B14</f>
         <v>-2.6519337016574607E-2</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="77">
+      <c r="C15" s="76"/>
+      <c r="D15" s="75">
         <f t="shared" ref="D15" si="7">D14-D13</f>
         <v>3.3425414364640887E-2</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="77">
+      <c r="E15" s="76"/>
+      <c r="F15" s="75">
         <f t="shared" ref="F15" si="8">F14-F13</f>
         <v>-5.9944751381215466E-2</v>
       </c>
-      <c r="G15" s="78"/>
+      <c r="G15" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3303,359 +3301,359 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="57" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.21875" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="1" width="20.109375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="74">
+      <c r="A1" s="72">
         <v>7.7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>13</v>
+      <c r="G2" s="30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="61">
         <v>4</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="62">
         <f>B3/$B$12</f>
         <v>2.4539877300613498E-2</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="69">
         <v>2</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <f>D3/$D$12</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="61">
         <v>3</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="67">
         <f>F3/$F$12</f>
         <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="59">
         <v>69</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="63">
         <f>B4/$B$12</f>
         <v>0.42331288343558282</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="70">
         <v>4</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <f t="shared" ref="E4:E11" si="0">D4/$D$12</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>5</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="68">
         <f>F4/$F$12</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="59">
         <v>2</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="63">
         <f t="shared" ref="C5:C10" si="1">B5/$B$12</f>
         <v>1.2269938650306749E-2</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="70">
         <v>2</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>1</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="68">
         <f t="shared" ref="G5:G10" si="2">F5/$F$12</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="59">
         <v>1</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="63">
         <f t="shared" si="1"/>
         <v>6.1349693251533744E-3</v>
       </c>
-      <c r="D6" s="72">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="22">
-        <v>0</v>
-      </c>
-      <c r="G6" s="70">
+      <c r="D6" s="70">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="61">
-        <v>0</v>
-      </c>
-      <c r="C7" s="65">
+      <c r="B7" s="59">
+        <v>0</v>
+      </c>
+      <c r="C7" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="72">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7" s="70">
+      <c r="D7" s="70">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="59">
         <v>52</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="63">
         <f t="shared" si="1"/>
         <v>0.31901840490797545</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="70">
         <v>1</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>1</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="68">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="61">
+      <c r="A9" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="59">
         <v>6</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="63">
         <f t="shared" si="1"/>
         <v>3.6809815950920248E-2</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="70">
         <v>1</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>4</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="68">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="59">
         <v>29</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="63">
         <f t="shared" si="1"/>
         <v>0.17791411042944785</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="70">
         <v>7</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <f t="shared" si="0"/>
         <v>0.3888888888888889</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>11</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="68">
         <f t="shared" si="2"/>
         <v>0.44</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="58">
+        <v>0</v>
+      </c>
+      <c r="C11" s="64">
+        <f>B11/$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="71">
+        <v>1</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F11" s="58">
+        <v>0</v>
+      </c>
+      <c r="G11" s="65">
+        <f>F11/$F$12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="60">
-        <v>0</v>
-      </c>
-      <c r="C11" s="66">
-        <f>B11/$B$12</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="73">
-        <v>1</v>
-      </c>
-      <c r="E11" s="29">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F11" s="60">
-        <v>0</v>
-      </c>
-      <c r="G11" s="67">
-        <f>F11/$F$12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="79">
+      <c r="B12" s="77">
         <f>SUM(B3:B11)</f>
         <v>163</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80">
+      <c r="C12" s="77"/>
+      <c r="D12" s="78">
         <f t="shared" ref="D12" si="3">SUM(D3:D11)</f>
         <v>18</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="80">
+      <c r="E12" s="79"/>
+      <c r="F12" s="78">
         <f t="shared" ref="F12" si="4">SUM(F3:F11)</f>
         <v>25</v>
       </c>
-      <c r="G12" s="81"/>
+      <c r="G12" s="79"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="82">
+      <c r="A13" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="80">
         <f>B12/($B$12+$D$12+$F$12)</f>
         <v>0.79126213592233008</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="82">
+      <c r="C13" s="81"/>
+      <c r="D13" s="80">
         <f t="shared" ref="D13" si="5">D12/($B$12+$D$12+$F$12)</f>
         <v>8.7378640776699032E-2</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="82">
+      <c r="E13" s="81"/>
+      <c r="F13" s="80">
         <f t="shared" ref="F13" si="6">F12/($B$12+$D$12+$F$12)</f>
         <v>0.12135922330097088</v>
       </c>
-      <c r="G13" s="83"/>
+      <c r="G13" s="81"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="73">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="74"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="75">
-        <v>0.8</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="75">
-        <v>0.15</v>
-      </c>
-      <c r="G14" s="76"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="77">
+      <c r="B15" s="75">
         <f>B13-B14</f>
         <v>-8.7378640776699656E-3</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="77">
+      <c r="C15" s="76"/>
+      <c r="D15" s="75">
         <f t="shared" ref="D15" si="7">D14-D13</f>
         <v>-3.7378640776699029E-2</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="77">
+      <c r="E15" s="76"/>
+      <c r="F15" s="75">
         <f t="shared" ref="F15" si="8">F14-F13</f>
         <v>2.8640776699029119E-2</v>
       </c>
-      <c r="G15" s="78"/>
+      <c r="G15" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3692,360 +3690,360 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="57" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.21875" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="1" width="20.109375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="74">
+      <c r="A1" s="72">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>13</v>
+      <c r="G2" s="30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="61">
         <v>2</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="62">
         <f>B3/$B$12</f>
         <v>1.4184397163120567E-2</v>
       </c>
-      <c r="D3" s="71">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="D3" s="69">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
         <f>D3/$D$12</f>
         <v>0</v>
       </c>
-      <c r="F3" s="63">
-        <v>0</v>
-      </c>
-      <c r="G3" s="69">
+      <c r="F3" s="61">
+        <v>0</v>
+      </c>
+      <c r="G3" s="67">
         <f>F3/$F$12</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="59">
         <v>70</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="63">
         <f>B4/$B$12</f>
         <v>0.49645390070921985</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="70">
         <v>2</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <f t="shared" ref="E4:E11" si="0">D4/$D$12</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>7</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="68">
         <f>F4/$F$12</f>
         <v>0.41176470588235292</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="59">
         <v>4</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="63">
         <f t="shared" ref="C5:C10" si="1">B5/$B$12</f>
         <v>2.8368794326241134E-2</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="70">
         <v>3</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-      <c r="G5" s="70">
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="68">
         <f t="shared" ref="G5:G10" si="2">F5/$F$12</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="59">
         <v>2</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="63">
         <f t="shared" si="1"/>
         <v>1.4184397163120567E-2</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="70">
         <v>1</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F6" s="22">
-        <v>0</v>
-      </c>
-      <c r="G6" s="70">
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="61">
-        <v>0</v>
-      </c>
-      <c r="C7" s="65">
+      <c r="B7" s="59">
+        <v>0</v>
+      </c>
+      <c r="C7" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="72">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7" s="70">
+      <c r="D7" s="70">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="59">
         <v>31</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="63">
         <f t="shared" si="1"/>
         <v>0.21985815602836881</v>
       </c>
-      <c r="D8" s="72">
-        <v>0</v>
-      </c>
-      <c r="E8" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="22">
+      <c r="D8" s="70">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
         <v>2</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="68">
         <f t="shared" si="2"/>
         <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="61">
+      <c r="A9" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="59">
         <v>15</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="63">
         <f t="shared" si="1"/>
         <v>0.10638297872340426</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="70">
         <v>2</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>5</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="68">
         <f t="shared" si="2"/>
         <v>0.29411764705882354</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="59">
         <v>17</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="63">
         <f t="shared" si="1"/>
         <v>0.12056737588652482</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="70">
         <v>3</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>3</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="68">
         <f t="shared" si="2"/>
         <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="58">
+        <v>0</v>
+      </c>
+      <c r="C11" s="64">
+        <f>B11/$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="71">
+        <v>1</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F11" s="58">
+        <v>0</v>
+      </c>
+      <c r="G11" s="65">
+        <f>F11/$F$12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="60">
-        <v>0</v>
-      </c>
-      <c r="C11" s="66">
-        <f>B11/$B$12</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="73">
-        <v>1</v>
-      </c>
-      <c r="E11" s="29">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F11" s="60">
-        <v>0</v>
-      </c>
-      <c r="G11" s="67">
-        <f>F11/$F$12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="79">
+      <c r="B12" s="77">
         <f>SUM(B3:B11)</f>
         <v>141</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80">
+      <c r="C12" s="77"/>
+      <c r="D12" s="78">
         <f t="shared" ref="D12" si="3">SUM(D3:D11)</f>
         <v>12</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="80">
+      <c r="E12" s="79"/>
+      <c r="F12" s="78">
         <f t="shared" ref="F12" si="4">SUM(F3:F11)</f>
         <v>17</v>
       </c>
-      <c r="G12" s="81"/>
+      <c r="G12" s="79"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="82">
+      <c r="A13" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="80">
         <f>B12/($B$12+$D$12+$F$12)</f>
         <v>0.8294117647058824</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="82">
+      <c r="C13" s="81"/>
+      <c r="D13" s="80">
         <f t="shared" ref="D13" si="5">D12/($B$12+$D$12+$F$12)</f>
         <v>7.0588235294117646E-2</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="82">
+      <c r="E13" s="81"/>
+      <c r="F13" s="80">
         <f t="shared" ref="F13" si="6">F12/($B$12+$D$12+$F$12)</f>
         <v>0.1</v>
       </c>
-      <c r="G13" s="83"/>
+      <c r="G13" s="81"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="73">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="74"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="75">
-        <v>0.8</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="75">
-        <v>0.15</v>
-      </c>
-      <c r="G14" s="76"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="77">
+      <c r="B15" s="75">
         <f>B13-B14</f>
         <v>2.9411764705882359E-2</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="77">
+      <c r="C15" s="76"/>
+      <c r="D15" s="75">
         <f t="shared" ref="D15" si="7">D14-D13</f>
         <v>-2.0588235294117643E-2</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="77">
+      <c r="E15" s="76"/>
+      <c r="F15" s="75">
         <f t="shared" ref="F15" si="8">F14-F13</f>
         <v>4.9999999999999989E-2</v>
       </c>
-      <c r="G15" s="78"/>
+      <c r="G15" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4082,360 +4080,360 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="57" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.21875" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="1" width="20.109375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="74">
+      <c r="A1" s="72">
         <v>8.1</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>13</v>
+      <c r="G2" s="30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="61">
         <v>3</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="62">
         <f>B3/$B$12</f>
         <v>1.1235955056179775E-2</v>
       </c>
-      <c r="D3" s="71">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="D3" s="69">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
         <f>D3/$D$12</f>
         <v>0</v>
       </c>
-      <c r="F3" s="63">
-        <v>0</v>
-      </c>
-      <c r="G3" s="69">
+      <c r="F3" s="61">
+        <v>0</v>
+      </c>
+      <c r="G3" s="67">
         <f>F3/$F$12</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="59">
         <v>106</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="63">
         <f>B4/$B$12</f>
         <v>0.39700374531835209</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="70">
         <v>1</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <f t="shared" ref="E4:E11" si="0">D4/$D$12</f>
         <v>1</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>1</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="68">
         <f>F4/$F$12</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="59">
         <v>8</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="63">
         <f t="shared" ref="C5:C10" si="1">B5/$B$12</f>
         <v>2.9962546816479401E-2</v>
       </c>
-      <c r="D5" s="72">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-      <c r="G5" s="70">
+      <c r="D5" s="70">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="68">
         <f t="shared" ref="G5:G10" si="2">F5/$F$12</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="59">
         <v>1</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="63">
         <f t="shared" si="1"/>
         <v>3.7453183520599251E-3</v>
       </c>
-      <c r="D6" s="72">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="22">
-        <v>0</v>
-      </c>
-      <c r="G6" s="70">
+      <c r="D6" s="70">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="61">
-        <v>0</v>
-      </c>
-      <c r="C7" s="65">
+      <c r="B7" s="59">
+        <v>0</v>
+      </c>
+      <c r="C7" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="72">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7" s="70">
+      <c r="D7" s="70">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="59">
         <v>77</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="63">
         <f t="shared" si="1"/>
         <v>0.28838951310861421</v>
       </c>
-      <c r="D8" s="72">
-        <v>0</v>
-      </c>
-      <c r="E8" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="22">
-        <v>0</v>
-      </c>
-      <c r="G8" s="70">
+      <c r="D8" s="70">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0</v>
+      </c>
+      <c r="G8" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="61">
+      <c r="A9" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="59">
         <v>35</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="63">
         <f t="shared" si="1"/>
         <v>0.13108614232209737</v>
       </c>
-      <c r="D9" s="72">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0</v>
-      </c>
-      <c r="G9" s="70">
+      <c r="D9" s="70">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="59">
         <v>37</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="63">
         <f t="shared" si="1"/>
         <v>0.13857677902621723</v>
       </c>
-      <c r="D10" s="72">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="22">
-        <v>0</v>
-      </c>
-      <c r="G10" s="70">
+      <c r="D10" s="70">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="58">
+        <v>0</v>
+      </c>
+      <c r="C11" s="64">
+        <f>B11/$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="71">
+        <v>0</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="58">
+        <v>0</v>
+      </c>
+      <c r="G11" s="65">
+        <f>F11/$F$12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="60">
-        <v>0</v>
-      </c>
-      <c r="C11" s="66">
-        <f>B11/$B$12</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="73">
-        <v>0</v>
-      </c>
-      <c r="E11" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="60">
-        <v>0</v>
-      </c>
-      <c r="G11" s="67">
-        <f>F11/$F$12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="79">
+      <c r="B12" s="77">
         <f>SUM(B3:B11)</f>
         <v>267</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80">
+      <c r="C12" s="77"/>
+      <c r="D12" s="78">
         <f t="shared" ref="D12" si="3">SUM(D3:D11)</f>
         <v>1</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="80">
+      <c r="E12" s="79"/>
+      <c r="F12" s="78">
         <f t="shared" ref="F12" si="4">SUM(F3:F11)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="81"/>
+      <c r="G12" s="79"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="82">
+      <c r="A13" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="80">
         <f>B12/($B$12+$D$12+$F$12)</f>
         <v>0.99256505576208176</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="82">
+      <c r="C13" s="81"/>
+      <c r="D13" s="80">
         <f t="shared" ref="D13" si="5">D12/($B$12+$D$12+$F$12)</f>
         <v>3.7174721189591076E-3</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="82">
+      <c r="E13" s="81"/>
+      <c r="F13" s="80">
         <f t="shared" ref="F13" si="6">F12/($B$12+$D$12+$F$12)</f>
         <v>3.7174721189591076E-3</v>
       </c>
-      <c r="G13" s="83"/>
+      <c r="G13" s="81"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="73">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="73">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="73">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="74"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="75">
-        <v>0.8</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="75">
-        <v>0.15</v>
-      </c>
-      <c r="G14" s="76"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="77">
+      <c r="B15" s="75">
         <f>B13-B14</f>
         <v>0.19256505576208172</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="77">
+      <c r="C15" s="76"/>
+      <c r="D15" s="75">
         <f t="shared" ref="D15" si="7">D14-D13</f>
         <v>4.6282527881040897E-2</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="77">
+      <c r="E15" s="76"/>
+      <c r="F15" s="75">
         <f t="shared" ref="F15" si="8">F14-F13</f>
         <v>0.14628252788104087</v>
       </c>
-      <c r="G15" s="78"/>
+      <c r="G15" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="12">
